--- a/JupyterNotebooks/AveragedIntensites/GossF-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GossF-HW10.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="GossF-HW10.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="GossF" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -949,7 +949,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.005877367761608</v>
+        <v>1.005877367761607</v>
       </c>
       <c r="D13">
         <v>0.9838600376175911</v>
@@ -958,7 +958,7 @@
         <v>0.9959362005835859</v>
       </c>
       <c r="F13">
-        <v>1.005877367761608</v>
+        <v>1.005877367761607</v>
       </c>
       <c r="G13">
         <v>0.9917810608704924</v>
@@ -976,10 +976,10 @@
         <v>0.9898981191005884</v>
       </c>
       <c r="L13">
-        <v>0.9978877434310982</v>
+        <v>0.9978877434310979</v>
       </c>
       <c r="M13">
-        <v>0.9925594138841239</v>
+        <v>0.9925594138841238</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1031,7 +1031,7 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.984143677795323</v>
+        <v>0.9841436777953232</v>
       </c>
       <c r="D15">
         <v>1.239648285085894</v>
@@ -1040,7 +1040,7 @@
         <v>0.9527240021869781</v>
       </c>
       <c r="F15">
-        <v>0.984143677795323</v>
+        <v>0.9841436777953232</v>
       </c>
       <c r="G15">
         <v>1.062007812646238</v>
@@ -1062,6 +1062,47 @@
       </c>
       <c r="M15">
         <v>1.032475887795995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.634508309208395</v>
+      </c>
+      <c r="D16">
+        <v>2.056121120826005</v>
+      </c>
+      <c r="E16">
+        <v>1.021648733139336</v>
+      </c>
+      <c r="F16">
+        <v>1.634508309208395</v>
+      </c>
+      <c r="G16">
+        <v>0.7277282058053257</v>
+      </c>
+      <c r="H16">
+        <v>2.018785056086185</v>
+      </c>
+      <c r="I16">
+        <v>0.7717809265185526</v>
+      </c>
+      <c r="J16">
+        <v>2.056121120826005</v>
+      </c>
+      <c r="K16">
+        <v>1.53888492698267</v>
+      </c>
+      <c r="L16">
+        <v>1.586696618095533</v>
+      </c>
+      <c r="M16">
+        <v>1.3717620585973</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/GossF-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GossF-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.634508309208395</v>

--- a/JupyterNotebooks/AveragedIntensites/GossF-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GossF-HW10.xlsx
@@ -952,7 +952,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.005877367761607</v>
+        <v>1.005877367761608</v>
       </c>
       <c r="D13">
         <v>0.9838600376175911</v>
@@ -961,7 +961,7 @@
         <v>0.9959362005835859</v>
       </c>
       <c r="F13">
-        <v>1.005877367761607</v>
+        <v>1.005877367761608</v>
       </c>
       <c r="G13">
         <v>0.9917810608704924</v>
@@ -979,10 +979,10 @@
         <v>0.9898981191005884</v>
       </c>
       <c r="L13">
-        <v>0.9978877434310979</v>
+        <v>0.9978877434310982</v>
       </c>
       <c r="M13">
-        <v>0.9925594138841238</v>
+        <v>0.9925594138841239</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1034,7 +1034,7 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9841436777953232</v>
+        <v>0.984143677795323</v>
       </c>
       <c r="D15">
         <v>1.239648285085894</v>
@@ -1043,7 +1043,7 @@
         <v>0.9527240021869781</v>
       </c>
       <c r="F15">
-        <v>0.9841436777953232</v>
+        <v>0.984143677795323</v>
       </c>
       <c r="G15">
         <v>1.062007812646238</v>

--- a/JupyterNotebooks/AveragedIntensites/GossF-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GossF-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>4.576016000000003</v>
+        <v>1.634508309208395</v>
       </c>
       <c r="D10">
-        <v>2.392376000000007</v>
+        <v>2.056121120826005</v>
       </c>
       <c r="E10">
-        <v>0.05374399999999981</v>
+        <v>1.021648733139336</v>
       </c>
       <c r="F10">
-        <v>4.576016000000003</v>
+        <v>1.634508309208395</v>
       </c>
       <c r="G10">
-        <v>1.071251999999999</v>
+        <v>0.7277282058053257</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.018785056086185</v>
       </c>
       <c r="I10">
-        <v>0.3787520000000003</v>
+        <v>0.7717809265185526</v>
       </c>
       <c r="J10">
-        <v>2.392376000000007</v>
+        <v>2.056121120826005</v>
       </c>
       <c r="K10">
-        <v>1.223060000000003</v>
+        <v>1.53888492698267</v>
       </c>
       <c r="L10">
-        <v>2.899538000000003</v>
+        <v>1.586696618095533</v>
       </c>
       <c r="M10">
-        <v>1.412023333333335</v>
+        <v>1.3717620585973</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>7.650550000000003</v>
+        <v>1.559426470653133</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>3.563089281232255</v>
       </c>
       <c r="E11">
-        <v>0.04</v>
+        <v>0.08727927503991484</v>
       </c>
       <c r="F11">
-        <v>7.650550000000003</v>
+        <v>1.559426470653133</v>
       </c>
       <c r="G11">
-        <v>0.06</v>
+        <v>2.022223957573038</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4795874999999998</v>
+        <v>0.3559398217201406</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>3.563089281232255</v>
       </c>
       <c r="K11">
-        <v>0.02</v>
+        <v>1.825184278136085</v>
       </c>
       <c r="L11">
-        <v>3.835275000000001</v>
+        <v>1.692305374394609</v>
       </c>
       <c r="M11">
-        <v>1.371689583333334</v>
+        <v>1.264659801036413</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>4.725924619264004</v>
+        <v>1.540973837564633</v>
       </c>
       <c r="D12">
-        <v>0.4300469861376049</v>
+        <v>3.57031561225003</v>
       </c>
       <c r="E12">
-        <v>0.4404363624447993</v>
+        <v>0.0874534275581257</v>
       </c>
       <c r="F12">
-        <v>4.725924619264004</v>
+        <v>1.540973837564633</v>
       </c>
       <c r="G12">
-        <v>0.4607013795840023</v>
+        <v>2.027804195942504</v>
       </c>
       <c r="H12">
-        <v>0.424147589324806</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.7282350641151982</v>
+        <v>0.3558856388016992</v>
       </c>
       <c r="J12">
-        <v>0.4300469861376049</v>
+        <v>3.57031561225003</v>
       </c>
       <c r="K12">
-        <v>0.4352416742912021</v>
+        <v>1.828884519904078</v>
       </c>
       <c r="L12">
-        <v>2.580583146777603</v>
+        <v>1.684929178734355</v>
       </c>
       <c r="M12">
-        <v>1.201582000145069</v>
+        <v>1.263738785352832</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.005877367761608</v>
+        <v>1.553384977716487</v>
       </c>
       <c r="D13">
-        <v>0.9838600376175911</v>
+        <v>3.562501612822962</v>
       </c>
       <c r="E13">
-        <v>0.9959362005835859</v>
+        <v>0.08738987830544981</v>
       </c>
       <c r="F13">
-        <v>1.005877367761608</v>
+        <v>1.553384977716487</v>
       </c>
       <c r="G13">
-        <v>0.9917810608704924</v>
+        <v>2.023714173948147</v>
       </c>
       <c r="H13">
-        <v>0.9813296137166525</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.9965722027548141</v>
+        <v>0.3563600782887664</v>
       </c>
       <c r="J13">
-        <v>0.9838600376175911</v>
+        <v>3.562501612822962</v>
       </c>
       <c r="K13">
-        <v>0.9898981191005884</v>
+        <v>1.824945745564206</v>
       </c>
       <c r="L13">
-        <v>0.9978877434310982</v>
+        <v>1.689165361640346</v>
       </c>
       <c r="M13">
-        <v>0.9925594138841239</v>
+        <v>1.263891786846969</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9562114723102951</v>
+        <v>4.576016000000003</v>
       </c>
       <c r="D14">
-        <v>1.377496938145186</v>
+        <v>2.392376000000007</v>
       </c>
       <c r="E14">
-        <v>0.8806293173617331</v>
+        <v>0.05374399999999981</v>
       </c>
       <c r="F14">
-        <v>0.9562114723102951</v>
+        <v>4.576016000000003</v>
       </c>
       <c r="G14">
-        <v>0.9465545429929211</v>
+        <v>1.071251999999999</v>
       </c>
       <c r="H14">
-        <v>1.292504258358423</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.9513350796612474</v>
+        <v>0.3787520000000003</v>
       </c>
       <c r="J14">
-        <v>1.377496938145186</v>
+        <v>2.392376000000007</v>
       </c>
       <c r="K14">
-        <v>1.12906312775346</v>
+        <v>1.223060000000003</v>
       </c>
       <c r="L14">
-        <v>1.042637300031877</v>
+        <v>2.899538000000003</v>
       </c>
       <c r="M14">
-        <v>1.067455268138301</v>
+        <v>1.412023333333335</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.984143677795323</v>
+        <v>7.650550000000003</v>
       </c>
       <c r="D15">
-        <v>1.239648285085894</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0.9527240021869781</v>
+        <v>0.04</v>
       </c>
       <c r="F15">
-        <v>0.984143677795323</v>
+        <v>7.650550000000003</v>
       </c>
       <c r="G15">
-        <v>1.062007812646238</v>
+        <v>0.06</v>
       </c>
       <c r="H15">
-        <v>0.9980678637560858</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.9582636853054539</v>
+        <v>0.4795874999999998</v>
       </c>
       <c r="J15">
-        <v>1.239648285085894</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.096186143636436</v>
+        <v>0.02</v>
       </c>
       <c r="L15">
-        <v>1.040164910715879</v>
+        <v>3.835275000000001</v>
       </c>
       <c r="M15">
-        <v>1.032475887795995</v>
+        <v>1.371689583333334</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.634508309208395</v>
+        <v>4.725924619264004</v>
       </c>
       <c r="D16">
-        <v>2.056121120826005</v>
+        <v>0.4300469861376049</v>
       </c>
       <c r="E16">
-        <v>1.021648733139336</v>
+        <v>0.4404363624447993</v>
       </c>
       <c r="F16">
-        <v>1.634508309208395</v>
+        <v>4.725924619264004</v>
       </c>
       <c r="G16">
-        <v>0.7277282058053257</v>
+        <v>0.4607013795840023</v>
       </c>
       <c r="H16">
-        <v>2.018785056086185</v>
+        <v>0.424147589324806</v>
       </c>
       <c r="I16">
-        <v>0.7717809265185526</v>
+        <v>0.7282350641151982</v>
       </c>
       <c r="J16">
-        <v>2.056121120826005</v>
+        <v>0.4300469861376049</v>
       </c>
       <c r="K16">
-        <v>1.53888492698267</v>
+        <v>0.4352416742912021</v>
       </c>
       <c r="L16">
-        <v>1.586696618095533</v>
+        <v>2.580583146777603</v>
       </c>
       <c r="M16">
-        <v>1.3717620585973</v>
+        <v>1.201582000145069</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>1.005877367761607</v>
+      </c>
+      <c r="D17">
+        <v>0.9838600376175911</v>
+      </c>
+      <c r="E17">
+        <v>0.9959362005835859</v>
+      </c>
+      <c r="F17">
+        <v>1.005877367761607</v>
+      </c>
+      <c r="G17">
+        <v>0.9917810608704924</v>
+      </c>
+      <c r="H17">
+        <v>0.9813296137166525</v>
+      </c>
+      <c r="I17">
+        <v>0.9965722027548141</v>
+      </c>
+      <c r="J17">
+        <v>0.9838600376175911</v>
+      </c>
+      <c r="K17">
+        <v>0.9898981191005884</v>
+      </c>
+      <c r="L17">
+        <v>0.9978877434310979</v>
+      </c>
+      <c r="M17">
+        <v>0.9925594138841238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.9562114723102951</v>
+      </c>
+      <c r="D18">
+        <v>1.377496938145186</v>
+      </c>
+      <c r="E18">
+        <v>0.8806293173617331</v>
+      </c>
+      <c r="F18">
+        <v>0.9562114723102951</v>
+      </c>
+      <c r="G18">
+        <v>0.9465545429929211</v>
+      </c>
+      <c r="H18">
+        <v>1.292504258358423</v>
+      </c>
+      <c r="I18">
+        <v>0.9513350796612474</v>
+      </c>
+      <c r="J18">
+        <v>1.377496938145186</v>
+      </c>
+      <c r="K18">
+        <v>1.12906312775346</v>
+      </c>
+      <c r="L18">
+        <v>1.042637300031877</v>
+      </c>
+      <c r="M18">
+        <v>1.067455268138301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9841436777953232</v>
+      </c>
+      <c r="D19">
+        <v>1.239648285085894</v>
+      </c>
+      <c r="E19">
+        <v>0.9527240021869781</v>
+      </c>
+      <c r="F19">
+        <v>0.9841436777953232</v>
+      </c>
+      <c r="G19">
+        <v>1.062007812646238</v>
+      </c>
+      <c r="H19">
+        <v>0.9980678637560858</v>
+      </c>
+      <c r="I19">
+        <v>0.9582636853054539</v>
+      </c>
+      <c r="J19">
+        <v>1.239648285085894</v>
+      </c>
+      <c r="K19">
+        <v>1.096186143636436</v>
+      </c>
+      <c r="L19">
+        <v>1.040164910715879</v>
+      </c>
+      <c r="M19">
+        <v>1.032475887795995</v>
       </c>
     </row>
   </sheetData>
